--- a/tarea1/src/data/datacities.xlsx
+++ b/tarea1/src/data/datacities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0815e7d62b1a9632/Documentos/UNI/Semestre 1-2025/Estadistica 3/tarea1/Estadistica3/tarea1/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0815e7d62b1a9632/Documentos/UNI/Semestre 1-2025/Estadistica 3/tarea1/Estadistica3/tarea1/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4D2F04E46CFB4ACB3E209A5551C68E683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9FA2D2-839E-47E6-A768-CEF1C30D7BA0}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4D2F04E46CFB4ACB3E209A5551C68E683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5B70AA-0800-4091-AD7E-A091C90DF5DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="2115" windowWidth="17280" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -230,6 +230,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1440,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1472,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
